--- a/biology/Zoologie/Adiaphanida/Adiaphanida.xlsx
+++ b/biology/Zoologie/Adiaphanida/Adiaphanida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Adiaphanida sont un super-ordre de vers plats rhabditophores.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le super-ordre des Adiaphanida a été créé en 2002 par Michael Norén (d) et Ulf Jondelius (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le super-ordre des Adiaphanida a été créé en 2002 par Michael Norén (d) et Ulf Jondelius (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (9 août 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (9 août 2022) :
 Fecampiida Rohde et al., 1994
 Prolecithophora Karling, 1940
 Tricladida Lang, 1884</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Adiaphanida dérive du préfixe grec ancien ἀ-, a-, « privation », et διαφανής, diaphanês, « transparent », soit « opaque » et ce en référence au fait que la plupart de ces espèces, voire toutes, présentent un corps plus ou moins opaque[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Adiaphanida dérive du préfixe grec ancien ἀ-, a-, « privation », et διαφανής, diaphanês, « transparent », soit « opaque » et ce en référence au fait que la plupart de ces espèces, voire toutes, présentent un corps plus ou moins opaque. 
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Michael Noren et Ulf Jondelius, « The phylogenetic position of the Prolecithophora (Rhabditophora, 'Platyhelminthes') », Zoologica Scripta, Wiley-Blackwell, vol. 31, no 4,‎ septembre 2002, p. 403-414 (ISSN 0300-3256 et 1463-6409, DOI 10.1046/J.1463-6409.2002.00082.X, lire en ligne)</t>
         </is>
